--- a/data/MyGBdata.xlsx
+++ b/data/MyGBdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="0" windowWidth="21080" windowHeight="13880" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="2980" yWindow="0" windowWidth="21080" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="England" sheetId="1" r:id="rId1"/>
@@ -1179,9 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -13346,7 +13344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
